--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -707,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -778,22 +778,22 @@
         <v>2.45</v>
       </c>
       <c r="J3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -802,13 +802,13 @@
         <v>2.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U3" t="n">
         <v>15</v>
@@ -826,22 +826,22 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -853,7 +853,7 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -906,10 +906,10 @@
         <v>19</v>
       </c>
       <c r="L4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
         <v>1.44</v>
@@ -930,13 +930,13 @@
         <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U4" t="n">
         <v>41</v>
       </c>
       <c r="V4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W4" t="n">
         <v>101</v>
@@ -945,10 +945,10 @@
         <v>51</v>
       </c>
       <c r="Y4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -963,13 +963,13 @@
         <v>201</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
         <v>2.63</v>
       </c>
       <c r="J5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1046,10 +1046,10 @@
         <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -1070,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
         <v>5.5</v>
@@ -1089,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
@@ -1133,19 +1133,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.5</v>
@@ -1154,10 +1154,10 @@
         <v>2.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.53</v>
@@ -1166,61 +1166,61 @@
         <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>67</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>41</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1255,46 +1255,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
         <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="O7" t="n">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="P7" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U7" t="n">
         <v>8</v>
@@ -1303,19 +1303,19 @@
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="n">
         <v>15</v>
       </c>
-      <c r="Y7" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>11</v>
-      </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB7" t="n">
         <v>17</v>
@@ -1324,13 +1324,13 @@
         <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
         <v>1.11</v>
@@ -1514,10 +1514,10 @@
         <v>6.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N9" t="n">
         <v>2.5</v>
@@ -1541,13 +1541,13 @@
         <v>5.5</v>
       </c>
       <c r="U9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -1569,16 +1569,16 @@
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
         <v>41</v>
@@ -1836,7 +1836,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>YLS2rh1N</t>
+          <t>GCz5gNYa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1846,117 +1846,119 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.47</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.88</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>1.82</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>2.63</v>
       </c>
       <c r="R13" t="n">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>4.65</v>
+        <v>6.5</v>
       </c>
       <c r="U13" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>21</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG13" t="n">
         <v>12</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AH13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="n">
         <v>29</v>
       </c>
-      <c r="X13" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ig4ZxWOp</t>
+          <t>vcOZO5po</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1966,117 +1968,59 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>El Ismaily</t>
+          <t>Samgurali</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>17</v>
-      </c>
-      <c r="V14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>65</v>
-      </c>
-      <c r="X14" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>250</v>
-      </c>
+          <t>Torpedo Kutaisi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>75</v>
-      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCz5gNYa</t>
+          <t>EuMeO7vQ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2086,119 +2030,59 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T15" t="n">
-        <v>7</v>
-      </c>
-      <c r="U15" t="n">
-        <v>10</v>
-      </c>
-      <c r="V15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>21</v>
-      </c>
-      <c r="X15" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>41</v>
-      </c>
+          <t>Auda</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vcOZO5po</t>
+          <t>pOCRIo2m</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2208,22 +2092,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Samgurali</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Torpedo Kutaisi</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -2260,7 +2144,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EuMeO7vQ</t>
+          <t>AD2QZuZi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2270,59 +2154,119 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auda</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>11</v>
+      </c>
+      <c r="V17" t="n">
+        <v>9</v>
+      </c>
+      <c r="W17" t="n">
+        <v>21</v>
+      </c>
+      <c r="X17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pOCRIo2m</t>
+          <t>zelrN2kn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2332,54 +2276,114 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grobina</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+          <t>Club America</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8</v>
+      </c>
+      <c r="U18" t="n">
+        <v>12</v>
+      </c>
+      <c r="V18" t="n">
+        <v>10</v>
+      </c>
+      <c r="W18" t="n">
+        <v>26</v>
+      </c>
+      <c r="X18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2422,16 +2426,16 @@
         <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
         <v>1.75</v>
@@ -2440,67 +2444,67 @@
         <v>2.05</v>
       </c>
       <c r="P19" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
         <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="V19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -2674,16 +2678,16 @@
         <v>13</v>
       </c>
       <c r="L22" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P22" t="n">
         <v>1.33</v>
@@ -2701,10 +2705,10 @@
         <v>13</v>
       </c>
       <c r="U22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W22" t="n">
         <v>41</v>
@@ -2740,13 +2744,13 @@
         <v>8.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -2781,13 +2785,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
@@ -2796,40 +2800,40 @@
         <v>7.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.78</v>
       </c>
-      <c r="P23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S23" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T23" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U23" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
         <v>13</v>
       </c>
       <c r="W23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X23" t="n">
         <v>35</v>
@@ -2841,28 +2845,28 @@
         <v>7.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>17.5</v>
@@ -2903,19 +2907,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.29</v>
@@ -2927,13 +2931,13 @@
         <v>1.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R24" t="n">
         <v>1.7</v>
@@ -2942,25 +2946,25 @@
         <v>2.05</v>
       </c>
       <c r="T24" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U24" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="V24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA24" t="n">
         <v>6.9</v>
@@ -2975,22 +2979,22 @@
         <v>500</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -3025,73 +3029,73 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
-        <v>5.6</v>
+        <v>5.75</v>
       </c>
       <c r="I25" t="n">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M25" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O25" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="P25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="U25" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="V25" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z25" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AB25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AD25" t="n">
         <v>700</v>
@@ -3100,19 +3104,19 @@
         <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AH25" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AJ25" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -3147,94 +3151,94 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J26" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="L26" t="n">
         <v>1.2</v>
       </c>
       <c r="M26" t="n">
-        <v>4.55</v>
+        <v>4.33</v>
       </c>
       <c r="N26" t="n">
         <v>1.62</v>
       </c>
       <c r="O26" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="P26" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U26" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="V26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W26" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="X26" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -3269,94 +3273,94 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="H27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="J27" t="n">
+        <v>21</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.03</v>
       </c>
-      <c r="K27" t="n">
-        <v>13.5</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M27" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="N27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O27" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P27" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="T27" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U27" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="V27" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="W27" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="X27" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="Y27" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB27" t="n">
         <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AD27" t="n">
         <v>500</v>
       </c>
       <c r="AE27" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
         <v>8</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -3456,43 +3460,43 @@
         <v>2.35</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S29" t="n">
         <v>1.8</v>
       </c>
-      <c r="S29" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U29" t="n">
         <v>11</v>
@@ -3504,40 +3508,40 @@
         <v>23</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>34</v>
@@ -3575,13 +3579,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -3650,7 +3654,7 @@
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
@@ -3697,76 +3701,76 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H31" t="n">
         <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V31" t="n">
         <v>8.5</v>
       </c>
       <c r="W31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
         <v>8</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -3775,10 +3779,10 @@
         <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI31" t="n">
         <v>41</v>
@@ -3834,16 +3838,16 @@
         <v>13</v>
       </c>
       <c r="L32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O32" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="P32" t="n">
         <v>1.33</v>
@@ -3852,13 +3856,13 @@
         <v>3.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U32" t="n">
         <v>9.5</v>
@@ -3876,22 +3880,22 @@
         <v>23</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
         <v>7</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>41</v>
       </c>
       <c r="AD32" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
@@ -3944,7 +3948,7 @@
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
         <v>1.53</v>
@@ -3956,10 +3960,10 @@
         <v>11</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N33" t="n">
         <v>1.9</v>
@@ -4084,10 +4088,10 @@
         <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P34" t="n">
         <v>1.3</v>
@@ -4185,10 +4189,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
@@ -4307,94 +4311,94 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K36" t="n">
+        <v>9</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="I36" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2.8</v>
-      </c>
       <c r="N36" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P36" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="R36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T36" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W36" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB36" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AE36" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -4429,94 +4433,94 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I37" t="n">
         <v>3.9</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L37" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O37" t="n">
         <v>2.05</v>
       </c>
       <c r="P37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T37" t="n">
         <v>8.5</v>
       </c>
       <c r="U37" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V37" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X37" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z37" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB37" t="n">
         <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH37" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AI37" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ37" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
         <v>1.06</v>
       </c>
       <c r="K3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -847,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H4" t="n">
         <v>5.75</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1089,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
@@ -1508,10 +1508,10 @@
         <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1740,36 +1740,90 @@
           <t>Leones del Norte</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>17</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>120</v>
+      </c>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,36 +1856,90 @@
           <t>Nueve de Octubre</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>15</v>
+      </c>
+      <c r="X12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>175</v>
+      </c>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="AE12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1865,13 +1973,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -1913,7 +2021,7 @@
         <v>9.5</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X13" t="n">
         <v>19</v>
@@ -1925,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB13" t="n">
         <v>17</v>
@@ -1934,13 +2042,13 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE13" t="n">
         <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
@@ -2048,36 +2156,84 @@
           <t>Auda</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.55</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>11</v>
+      </c>
+      <c r="U15" t="n">
+        <v>25</v>
+      </c>
+      <c r="V15" t="n">
+        <v>14</v>
+      </c>
+      <c r="W15" t="n">
+        <v>75</v>
+      </c>
+      <c r="X15" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2110,36 +2266,84 @@
           <t>Grobina</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.77</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>17</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2182,10 +2386,10 @@
         <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
         <v>1.25</v>
@@ -2194,16 +2398,16 @@
         <v>3.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>1.67</v>
@@ -2230,7 +2434,7 @@
         <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2298,16 +2502,16 @@
         <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2316,10 +2520,10 @@
         <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2328,13 +2532,13 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.8</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U18" t="n">
         <v>12</v>
@@ -2346,13 +2550,13 @@
         <v>26</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2364,10 +2568,10 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
@@ -2379,10 +2583,10 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -2423,13 +2627,13 @@
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>1.22</v>
@@ -2474,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2498,7 +2702,7 @@
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3038,10 +3242,10 @@
         <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
         <v>1.14</v>
@@ -3394,36 +3598,96 @@
           <t>Geylang</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K28" t="n">
+        <v>34</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M28" t="n">
+        <v>11</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T28" t="n">
+        <v>34</v>
+      </c>
+      <c r="U28" t="n">
+        <v>51</v>
+      </c>
+      <c r="V28" t="n">
+        <v>23</v>
+      </c>
+      <c r="W28" t="n">
+        <v>81</v>
+      </c>
+      <c r="X28" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3713,7 +3977,7 @@
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -3945,13 +4209,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
@@ -3960,10 +4224,10 @@
         <v>11</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N33" t="n">
         <v>1.9</v>
@@ -3978,10 +4242,10 @@
         <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -4011,10 +4275,10 @@
         <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD33" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE33" t="n">
         <v>6.5</v>
@@ -4192,10 +4456,10 @@
         <v>1.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
@@ -4222,10 +4486,10 @@
         <v>3.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S35" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T35" t="n">
         <v>12</v>
@@ -4249,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="AA35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB35" t="n">
         <v>12</v>
@@ -4311,13 +4575,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="J36" t="n">
         <v>1.07</v>
@@ -4350,19 +4614,19 @@
         <v>1.83</v>
       </c>
       <c r="T36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W36" t="n">
+        <v>26</v>
+      </c>
+      <c r="X36" t="n">
         <v>23</v>
-      </c>
-      <c r="X36" t="n">
-        <v>21</v>
       </c>
       <c r="Y36" t="n">
         <v>34</v>
@@ -4383,16 +4647,16 @@
         <v>301</v>
       </c>
       <c r="AE36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
         <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1871,7 +1871,7 @@
         <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N12" t="n">
         <v>2.52</v>
@@ -1880,10 +1880,10 @@
         <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R12" t="n">
         <v>2.25</v>
@@ -1892,10 +1892,10 @@
         <v>1.5</v>
       </c>
       <c r="T12" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="U12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="V12" t="n">
         <v>9.5</v>
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="Z12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
@@ -1926,10 +1926,10 @@
         <v>8.75</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
         <v>80</v>
@@ -1982,10 +1982,10 @@
         <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2157,23 +2157,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P15" t="n">
         <v>1.38</v>
@@ -2184,55 +2184,55 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="X15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="n">
         <v>45</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
         <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD15" t="n">
         <v>500</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI15" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2380,76 +2380,76 @@
         <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M17" t="n">
         <v>3.25</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N17" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="P17" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="U17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
         <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -2461,10 +2461,10 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2633,7 +2633,7 @@
         <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
         <v>1.22</v>
@@ -2989,13 +2989,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
@@ -3010,7 +3010,7 @@
         <v>3.2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O23" t="n">
         <v>1.8</v>
@@ -3022,28 +3022,28 @@
         <v>2.67</v>
       </c>
       <c r="R23" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T23" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U23" t="n">
         <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X23" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="n">
         <v>7.6</v>
@@ -3061,19 +3061,19 @@
         <v>600</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF23" t="n">
         <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH23" t="n">
         <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
         <v>30</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
         <v>1.06</v>
@@ -847,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
         <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.14</v>
@@ -1046,22 +1046,22 @@
         <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
         <v>13</v>
       </c>
       <c r="W5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X5" t="n">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA5" t="n">
         <v>5.5</v>
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1095,7 +1095,7 @@
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1264,10 +1264,10 @@
         <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.2</v>
@@ -1282,10 +1282,10 @@
         <v>2.15</v>
       </c>
       <c r="P7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
         <v>1.73</v>
@@ -1297,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1312,16 +1312,16 @@
         <v>23</v>
       </c>
       <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB7" t="n">
         <v>15</v>
       </c>
-      <c r="AA7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>17</v>
-      </c>
       <c r="AC7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="n">
         <v>201</v>
@@ -1857,85 +1857,85 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="N12" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="U12" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="V12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
         <v>80</v>
@@ -2157,23 +2157,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="O15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P15" t="n">
         <v>1.38</v>
@@ -2187,52 +2187,52 @@
         <v>10</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V15" t="n">
         <v>13</v>
       </c>
       <c r="W15" t="n">
+        <v>60</v>
+      </c>
+      <c r="X15" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="n">
         <v>65</v>
-      </c>
-      <c r="X15" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>70</v>
       </c>
       <c r="AD15" t="n">
         <v>500</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AF15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AG15" t="n">
         <v>7</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -2267,13 +2267,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2283,7 +2283,7 @@
         <v>1.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P16" t="n">
         <v>1.38</v>
@@ -2294,28 +2294,28 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U16" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V16" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="W16" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB16" t="n">
         <v>11.25</v>
@@ -2327,19 +2327,19 @@
         <v>250</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
@@ -2377,31 +2377,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
         <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N17" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2410,13 +2410,13 @@
         <v>2.63</v>
       </c>
       <c r="R17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.8</v>
       </c>
-      <c r="S17" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U17" t="n">
         <v>10</v>
@@ -2428,13 +2428,13 @@
         <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
@@ -2446,19 +2446,19 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -2514,10 +2514,10 @@
         <v>8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N18" t="n">
         <v>2.25</v>
@@ -2989,94 +2989,94 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M23" t="n">
         <v>3.4</v>
       </c>
-      <c r="I23" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3.2</v>
-      </c>
       <c r="N23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>1.8</v>
       </c>
       <c r="P23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="V23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W23" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y23" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -3111,94 +3111,94 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N24" t="n">
         <v>1.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P24" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
+        <v>11</v>
+      </c>
+      <c r="U24" t="n">
+        <v>19</v>
+      </c>
+      <c r="V24" t="n">
+        <v>12</v>
+      </c>
+      <c r="W24" t="n">
+        <v>41</v>
+      </c>
+      <c r="X24" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF24" t="n">
         <v>10</v>
-      </c>
-      <c r="U24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>50</v>
-      </c>
-      <c r="X24" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>11.25</v>
       </c>
       <c r="AG24" t="n">
         <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -3358,46 +3358,46 @@
         <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
         <v>1.75</v>
       </c>
       <c r="J26" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K26" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S26" t="n">
         <v>2.25</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V26" t="n">
         <v>13</v>
@@ -3412,22 +3412,22 @@
         <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
         <v>8</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
         <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
@@ -4209,13 +4209,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
@@ -4224,16 +4224,16 @@
         <v>11</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O33" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P33" t="n">
         <v>1.36</v>
@@ -4242,10 +4242,10 @@
         <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S33" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -4275,10 +4275,10 @@
         <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE33" t="n">
         <v>6.5</v>
@@ -4296,7 +4296,7 @@
         <v>13</v>
       </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -662,10 +662,10 @@
         <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N2" t="n">
         <v>2.1</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
         <v>1.06</v>
@@ -790,10 +790,10 @@
         <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
         <v>15</v>
@@ -826,7 +826,7 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -930,16 +930,16 @@
         <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U4" t="n">
         <v>41</v>
       </c>
       <c r="V4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="X4" t="n">
         <v>51</v>
@@ -960,7 +960,7 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE4" t="n">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
         <v>10</v>
@@ -1034,10 +1034,10 @@
         <v>2.3</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.62</v>
@@ -1255,19 +1255,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
         <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
         <v>1.2</v>
@@ -1276,10 +1276,10 @@
         <v>4.33</v>
       </c>
       <c r="N7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1303,10 +1303,10 @@
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>23</v>
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1377,85 +1377,85 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="I8" t="n">
         <v>7.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.22</v>
       </c>
-      <c r="M8" t="n">
+      <c r="Q8" t="n">
         <v>4</v>
       </c>
-      <c r="N8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.1</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="n">
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE8" t="n">
         <v>26</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>81</v>
@@ -1464,7 +1464,7 @@
         <v>51</v>
       </c>
       <c r="AJ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
         <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S12" t="n">
         <v>1.52</v>
@@ -1904,7 +1904,7 @@
         <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
         <v>45</v>
@@ -1929,16 +1929,16 @@
         <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
         <v>100</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -2380,7 +2380,7 @@
         <v>2.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>3.5</v>
@@ -2398,16 +2398,16 @@
         <v>2.75</v>
       </c>
       <c r="N17" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
         <v>1.95</v>
@@ -2416,7 +2416,7 @@
         <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U17" t="n">
         <v>10</v>
@@ -2992,7 +2992,7 @@
         <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
         <v>2.1</v>
@@ -3111,13 +3111,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J24" t="n">
         <v>1.05</v>
@@ -4108,10 +4108,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O32" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P32" t="n">
         <v>1.33</v>
@@ -4224,16 +4224,16 @@
         <v>11</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P33" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
         <v>1.06</v>
@@ -802,10 +802,10 @@
         <v>2.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
         <v>5.5</v>
@@ -903,13 +903,13 @@
         <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N4" t="n">
         <v>1.44</v>
@@ -924,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T4" t="n">
         <v>23</v>
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
         <v>9.5</v>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
@@ -1264,16 +1264,16 @@
         <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>1.7</v>
@@ -1321,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD7" t="n">
         <v>201</v>
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
         <v>7.5</v>
@@ -1389,19 +1389,19 @@
         <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L8" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M8" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="O8" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="P8" t="n">
         <v>1.22</v>
@@ -1422,22 +1422,22 @@
         <v>8.5</v>
       </c>
       <c r="V8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W8" t="n">
         <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z8" t="n">
         <v>19</v>
       </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB8" t="n">
         <v>17</v>
@@ -1499,10 +1499,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
         <v>4.1</v>
@@ -1559,7 +1559,7 @@
         <v>6.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
         <v>19</v>
@@ -1572,13 +1572,13 @@
         <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI9" t="n">
         <v>41</v>
@@ -1619,13 +1619,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1744,85 +1744,85 @@
         <v>1.98</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="N11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.32</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.22</v>
-      </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V11" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W11" t="n">
         <v>17</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="AA11" t="n">
         <v>6.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>55</v>
       </c>
       <c r="AI11" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
@@ -2377,13 +2377,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2410,16 +2410,16 @@
         <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
         <v>6.5</v>
       </c>
       <c r="U17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V17" t="n">
         <v>9.5</v>
@@ -2434,19 +2434,19 @@
         <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE17" t="n">
         <v>9</v>
@@ -2461,7 +2461,7 @@
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
@@ -2660,16 +2660,16 @@
         <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -2678,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2989,7 +2989,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
@@ -3004,16 +3004,16 @@
         <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3022,13 +3022,13 @@
         <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U23" t="n">
         <v>17</v>
@@ -3046,7 +3046,7 @@
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
@@ -3073,7 +3073,7 @@
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -3846,10 +3846,10 @@
         <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -3968,22 +3968,22 @@
         <v>1.53</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
         <v>1.75</v>
@@ -4004,7 +4004,7 @@
         <v>1.91</v>
       </c>
       <c r="T31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U31" t="n">
         <v>7.5</v>
@@ -4034,13 +4034,13 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG31" t="n">
         <v>19</v>
@@ -4108,10 +4108,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O32" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P32" t="n">
         <v>1.33</v>
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
@@ -4230,10 +4230,10 @@
         <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="O33" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="P33" t="n">
         <v>1.36</v>
@@ -4296,7 +4296,7 @@
         <v>13</v>
       </c>
       <c r="AJ33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1055,13 +1055,13 @@
         <v>7</v>
       </c>
       <c r="U5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V5" t="n">
         <v>13</v>
       </c>
       <c r="W5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X5" t="n">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
         <v>5.5</v>
@@ -1086,16 +1086,16 @@
         <v>6</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
         <v>1.11</v>
@@ -1172,7 +1172,7 @@
         <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U6" t="n">
         <v>15</v>
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="W6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X6" t="n">
         <v>34</v>
@@ -1205,7 +1205,7 @@
         <v>1250</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1214,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N7" t="n">
         <v>1.7</v>
@@ -1303,7 +1303,7 @@
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
         <v>4.75</v>
@@ -1386,10 +1386,10 @@
         <v>7.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" t="n">
         <v>1.14</v>
@@ -1398,31 +1398,31 @@
         <v>5.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U8" t="n">
+        <v>8</v>
+      </c>
+      <c r="V8" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>9</v>
       </c>
       <c r="W8" t="n">
         <v>10</v>
@@ -1434,10 +1434,10 @@
         <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB8" t="n">
         <v>17</v>
@@ -1449,7 +1449,7 @@
         <v>151</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
@@ -1619,13 +1619,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1667,7 +1667,7 @@
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1691,7 +1691,7 @@
         <v>126</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>17</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
@@ -2094,36 +2094,84 @@
           <t>Torpedo Kutaisi</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.42</v>
+      </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>13</v>
+      </c>
+      <c r="V14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>32</v>
+      </c>
+      <c r="X14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2377,43 +2425,43 @@
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
         <v>2.2</v>
       </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.35</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
         <v>6.5</v>
@@ -2422,34 +2470,34 @@
         <v>9.5</v>
       </c>
       <c r="V17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
         <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -2742,36 +2790,90 @@
           <t>Rubio Nu</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.12</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>12</v>
+      </c>
+      <c r="W20" t="n">
+        <v>45</v>
+      </c>
+      <c r="X20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>100</v>
+      </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
+      <c r="AE20" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2804,36 +2906,92 @@
           <t>Resistencia</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T21" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>24</v>
+      </c>
+      <c r="X21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2989,31 +3147,31 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3031,10 +3189,10 @@
         <v>9.5</v>
       </c>
       <c r="U23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W23" t="n">
         <v>34</v>
@@ -3067,10 +3225,10 @@
         <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
@@ -3477,55 +3635,55 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="J27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="L27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="O27" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T27" t="n">
+        <v>29</v>
+      </c>
+      <c r="U27" t="n">
+        <v>51</v>
+      </c>
+      <c r="V27" t="n">
         <v>26</v>
       </c>
-      <c r="U27" t="n">
-        <v>41</v>
-      </c>
-      <c r="V27" t="n">
-        <v>23</v>
-      </c>
       <c r="W27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X27" t="n">
         <v>51</v>
@@ -3534,37 +3692,37 @@
         <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
         <v>51</v>
       </c>
       <c r="AD27" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF27" t="n">
         <v>8</v>
       </c>
       <c r="AG27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI27" t="n">
         <v>11</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -3977,7 +4135,7 @@
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
         <v>1.22</v>
@@ -3986,10 +4144,10 @@
         <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O31" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P31" t="n">
         <v>1.33</v>
@@ -4230,10 +4388,10 @@
         <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="P33" t="n">
         <v>1.36</v>
@@ -4575,19 +4733,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
         <v>1.36</v>
@@ -4617,7 +4775,7 @@
         <v>8</v>
       </c>
       <c r="U36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V36" t="n">
         <v>11</v>
@@ -4632,7 +4790,7 @@
         <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA36" t="n">
         <v>6</v>
@@ -4647,16 +4805,16 @@
         <v>301</v>
       </c>
       <c r="AE36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
         <v>23</v>
@@ -4700,10 +4858,10 @@
         <v>1.85</v>
       </c>
       <c r="H37" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
         <v>1.04</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -674,10 +674,10 @@
         <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.91</v>
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V2" t="n">
         <v>13</v>
@@ -903,7 +903,7 @@
         <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" t="n">
         <v>1.14</v>
@@ -1022,10 +1022,10 @@
         <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1264,16 +1264,16 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>1.7</v>
@@ -1377,31 +1377,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P8" t="n">
         <v>1.25</v>
@@ -1416,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U8" t="n">
         <v>8</v>
@@ -1434,7 +1434,7 @@
         <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>9</v>
@@ -1446,22 +1446,22 @@
         <v>41</v>
       </c>
       <c r="AD8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>81</v>
       </c>
       <c r="AI8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1622,34 +1622,34 @@
         <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O10" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R10" t="n">
         <v>1.53</v>
@@ -1706,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -2095,26 +2095,26 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q14" t="n">
         <v>2.42</v>
@@ -2122,22 +2122,22 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="V14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
         <v>8</v>
@@ -2146,28 +2146,28 @@
         <v>5.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>50</v>
       </c>
       <c r="AD14" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2434,10 +2434,10 @@
         <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2446,10 +2446,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2690,10 +2690,10 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -2829,7 +2829,7 @@
         <v>8.25</v>
       </c>
       <c r="U20" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V20" t="n">
         <v>12</v>
@@ -2850,14 +2850,14 @@
         <v>6.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
         <v>100</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AF20" t="n">
         <v>9.25</v>
@@ -2942,10 +2942,10 @@
         <v>1.75</v>
       </c>
       <c r="T21" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U21" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V21" t="n">
         <v>9.25</v>
@@ -2960,7 +2960,7 @@
         <v>35</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA21" t="n">
         <v>5.8</v>
@@ -2975,7 +2975,7 @@
         <v>800</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF21" t="n">
         <v>15</v>
@@ -2987,7 +2987,7 @@
         <v>40</v>
       </c>
       <c r="AI21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ21" t="n">
         <v>45</v>
@@ -3156,10 +3156,10 @@
         <v>2.15</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
         <v>1.3</v>
@@ -3180,10 +3180,10 @@
         <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
         <v>9.5</v>
@@ -3204,7 +3204,7 @@
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
@@ -3225,7 +3225,7 @@
         <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
         <v>21</v>
@@ -3635,19 +3635,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
         <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J27" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="K27" t="n">
-        <v>1.02</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
         <v>1.1</v>
@@ -3689,10 +3689,10 @@
         <v>51</v>
       </c>
       <c r="Y27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
@@ -3757,10 +3757,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
         <v>1.27</v>
@@ -3778,10 +3778,10 @@
         <v>11</v>
       </c>
       <c r="N28" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="O28" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="P28" t="n">
         <v>1.14</v>
@@ -3796,22 +3796,22 @@
         <v>2.63</v>
       </c>
       <c r="T28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
         <v>51</v>
       </c>
       <c r="V28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X28" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y28" t="n">
         <v>41</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>34</v>
       </c>
       <c r="Z28" t="n">
         <v>34</v>
@@ -3820,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
         <v>34</v>
@@ -4388,10 +4388,10 @@
         <v>3.5</v>
       </c>
       <c r="N33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.9</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.95</v>
       </c>
       <c r="P33" t="n">
         <v>1.36</v>
@@ -4733,13 +4733,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
         <v>1.08</v>
@@ -4748,16 +4748,16 @@
         <v>8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N36" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P36" t="n">
         <v>1.44</v>
@@ -4772,19 +4772,19 @@
         <v>1.83</v>
       </c>
       <c r="T36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
         <v>34</v>
@@ -4802,22 +4802,22 @@
         <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ36" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -722,13 +722,13 @@
         <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -790,10 +790,10 @@
         <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -930,13 +930,13 @@
         <v>2.05</v>
       </c>
       <c r="T4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U4" t="n">
         <v>41</v>
       </c>
       <c r="V4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W4" t="n">
         <v>81</v>
@@ -948,13 +948,13 @@
         <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
@@ -963,7 +963,7 @@
         <v>151</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
@@ -1142,16 +1142,16 @@
         <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N6" t="n">
         <v>2.5</v>
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1276,10 +1276,10 @@
         <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1303,7 +1303,7 @@
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1628,10 +1628,10 @@
         <v>2.88</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
@@ -1973,13 +1973,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.4</v>
       </c>
       <c r="J13" t="n">
         <v>1.07</v>
@@ -2021,7 +2021,7 @@
         <v>9.5</v>
       </c>
       <c r="W13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
         <v>19</v>
@@ -2048,7 +2048,7 @@
         <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2467,7 +2467,7 @@
         <v>6.5</v>
       </c>
       <c r="U17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
@@ -2500,7 +2500,7 @@
         <v>9.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
@@ -2690,10 +2690,10 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -3040,16 +3040,16 @@
         <v>13</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N22" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P22" t="n">
         <v>1.33</v>
@@ -3513,13 +3513,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3546,13 +3546,13 @@
         <v>3.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S26" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U26" t="n">
         <v>23</v>
@@ -3564,7 +3564,7 @@
         <v>41</v>
       </c>
       <c r="X26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
         <v>29</v>
@@ -3588,7 +3588,7 @@
         <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
         <v>9</v>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H27" t="n">
         <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="J27" t="n">
         <v>1.01</v>
@@ -3689,10 +3689,10 @@
         <v>51</v>
       </c>
       <c r="Y27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
@@ -3888,10 +3888,10 @@
         <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
         <v>1.36</v>
@@ -3900,10 +3900,10 @@
         <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P29" t="n">
         <v>1.44</v>
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
         <v>6.25</v>
@@ -4144,22 +4144,22 @@
         <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R31" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T31" t="n">
         <v>7.5</v>
@@ -4177,10 +4177,10 @@
         <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
         <v>8</v>
@@ -4620,22 +4620,22 @@
         <v>3.8</v>
       </c>
       <c r="J35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="O35" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P35" t="n">
         <v>1.25</v>
@@ -4644,19 +4644,19 @@
         <v>3.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W35" t="n">
         <v>17</v>
@@ -4742,10 +4742,10 @@
         <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -680,16 +680,16 @@
         <v>2.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V2" t="n">
         <v>13</v>
@@ -722,13 +722,13 @@
         <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -894,16 +894,16 @@
         <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" t="n">
         <v>1.14</v>
@@ -924,58 +924,58 @@
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="U4" t="n">
         <v>41</v>
       </c>
       <c r="V4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="W4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="n">
         <v>151</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
@@ -1022,10 +1022,10 @@
         <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1133,19 +1133,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.44</v>
@@ -1175,7 +1175,7 @@
         <v>8.5</v>
       </c>
       <c r="U6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V6" t="n">
         <v>13</v>
@@ -1193,7 +1193,7 @@
         <v>6.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
         <v>17</v>
@@ -1208,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1217,7 +1217,7 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1619,13 +1619,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1634,16 +1634,16 @@
         <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P10" t="n">
         <v>1.3</v>
@@ -1673,7 +1673,7 @@
         <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
         <v>15</v>
@@ -1685,7 +1685,7 @@
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="n">
         <v>126</v>
@@ -1706,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1886,31 +1886,31 @@
         <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U12" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="V12" t="n">
         <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
         <v>45</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA12" t="n">
         <v>6.5</v>
@@ -1923,22 +1923,22 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -1973,19 +1973,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2006,10 +2006,10 @@
         <v>2.63</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T13" t="n">
         <v>6.5</v>
@@ -2021,7 +2021,7 @@
         <v>9.5</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X13" t="n">
         <v>19</v>
@@ -2048,16 +2048,16 @@
         <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
         <v>41</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2467,10 +2467,10 @@
         <v>6.5</v>
       </c>
       <c r="U17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
         <v>19</v>
@@ -2500,7 +2500,7 @@
         <v>9.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
@@ -2669,13 +2669,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.4</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2714,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W19" t="n">
         <v>17</v>
@@ -2747,16 +2747,16 @@
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2829,7 +2829,7 @@
         <v>8.25</v>
       </c>
       <c r="U20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V20" t="n">
         <v>12</v>
@@ -2838,26 +2838,26 @@
         <v>45</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="n">
         <v>7.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC20" t="n">
         <v>100</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AF20" t="n">
         <v>9.25</v>
@@ -2913,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
         <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S21" t="n">
         <v>1.75</v>
@@ -2960,10 +2960,10 @@
         <v>35</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB21" t="n">
         <v>15.5</v>
@@ -3168,10 +3168,10 @@
         <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O23" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
@@ -3290,10 +3290,10 @@
         <v>3.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O24" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="P24" t="n">
         <v>1.36</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
         <v>1.02</v>
@@ -3439,7 +3439,7 @@
         <v>9.5</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3448,37 +3448,37 @@
         <v>26</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
         <v>12</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD25" t="n">
         <v>700</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI25" t="n">
         <v>51</v>
       </c>
       <c r="AJ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -3513,13 +3513,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3573,7 +3573,7 @@
         <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB26" t="n">
         <v>13</v>
@@ -3585,7 +3585,7 @@
         <v>126</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
         <v>11</v>
@@ -3635,19 +3635,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
         <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>1.02</v>
       </c>
       <c r="L27" t="n">
         <v>1.1</v>
@@ -3668,10 +3668,10 @@
         <v>4.33</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T27" t="n">
         <v>29</v>
@@ -3689,10 +3689,10 @@
         <v>51</v>
       </c>
       <c r="Y27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
@@ -3879,19 +3879,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
         <v>1.36</v>
@@ -3912,13 +3912,13 @@
         <v>2.63</v>
       </c>
       <c r="R29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S29" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U29" t="n">
         <v>11</v>
@@ -3936,19 +3936,19 @@
         <v>34</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
@@ -3960,10 +3960,10 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>34</v>
@@ -4007,7 +4007,7 @@
         <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -4040,7 +4040,7 @@
         <v>2.2</v>
       </c>
       <c r="T30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U30" t="n">
         <v>10</v>
@@ -4061,7 +4061,7 @@
         <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
@@ -4245,13 +4245,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4296,7 +4296,7 @@
         <v>15</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>23</v>
@@ -4305,7 +4305,7 @@
         <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB32" t="n">
         <v>13</v>
@@ -4510,10 +4510,10 @@
         <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P34" t="n">
         <v>1.3</v>
@@ -4867,7 +4867,7 @@
         <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L37" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -903,7 +903,7 @@
         <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" t="n">
         <v>1.14</v>
@@ -1022,10 +1022,10 @@
         <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
         <v>1.11</v>
@@ -1172,10 +1172,10 @@
         <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V6" t="n">
         <v>13</v>
@@ -1193,7 +1193,7 @@
         <v>6.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB6" t="n">
         <v>17</v>
@@ -1208,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1416,16 +1416,16 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V8" t="n">
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1443,28 +1443,28 @@
         <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="n">
         <v>201</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>81</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1741,13 +1741,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1758,10 +1758,10 @@
         <v>2.55</v>
       </c>
       <c r="N11" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
         <v>1.47</v>
@@ -1782,22 +1782,22 @@
         <v>8.5</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
         <v>35</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB11" t="n">
         <v>17.5</v>
@@ -1807,10 +1807,10 @@
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1819,10 +1819,10 @@
         <v>55</v>
       </c>
       <c r="AI11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1860,7 @@
         <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
         <v>4.6</v>
@@ -1904,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
         <v>45</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF12" t="n">
         <v>24</v>
@@ -1932,7 +1932,7 @@
         <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="n">
         <v>60</v>
@@ -1973,13 +1973,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -1988,34 +1988,34 @@
         <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N13" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V13" t="n">
         <v>9.5</v>
@@ -2024,25 +2024,25 @@
         <v>19</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
         <v>6.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD13" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE13" t="n">
         <v>8.5</v>
@@ -2425,19 +2425,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2464,16 +2464,16 @@
         <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V17" t="n">
         <v>9.5</v>
       </c>
       <c r="W17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
         <v>19</v>
@@ -2509,7 +2509,7 @@
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2690,10 +2690,10 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -3168,10 +3168,10 @@
         <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3290,10 +3290,10 @@
         <v>3.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="P24" t="n">
         <v>1.36</v>
@@ -3513,19 +3513,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="L26" t="n">
         <v>1.17</v>
@@ -3573,7 +3573,7 @@
         <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="n">
         <v>13</v>
@@ -3585,7 +3585,7 @@
         <v>126</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>11</v>
@@ -3644,10 +3644,10 @@
         <v>1.2</v>
       </c>
       <c r="J27" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="K27" t="n">
-        <v>1.02</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
         <v>1.1</v>
@@ -4001,13 +4001,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H30" t="n">
         <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -4049,7 +4049,7 @@
         <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
@@ -4076,7 +4076,7 @@
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
@@ -4388,10 +4388,10 @@
         <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O33" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P33" t="n">
         <v>1.36</v>
@@ -4510,10 +4510,10 @@
         <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P34" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-15.xlsx
@@ -790,10 +790,10 @@
         <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1288,22 +1288,22 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U7" t="n">
         <v>8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>8.5</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1315,10 +1315,10 @@
         <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>51</v>
@@ -1333,13 +1333,13 @@
         <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1982,34 +1982,34 @@
         <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N13" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T13" t="n">
         <v>6</v>
@@ -2027,7 +2027,7 @@
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="n">
         <v>7</v>
@@ -2045,7 +2045,7 @@
         <v>501</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
         <v>17</v>
@@ -2205,79 +2205,79 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.65</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="O15" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P15" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="V15" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="W15" t="n">
+        <v>40</v>
+      </c>
+      <c r="X15" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC15" t="n">
         <v>60</v>
       </c>
-      <c r="X15" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AD15" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH15" t="n">
         <v>14</v>
       </c>
-      <c r="AC15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>10</v>
-      </c>
       <c r="AI15" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>23</v>
@@ -2318,7 +2318,7 @@
         <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
         <v>2.62</v>
@@ -2331,7 +2331,7 @@
         <v>1.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P16" t="n">
         <v>1.38</v>
@@ -2345,7 +2345,7 @@
         <v>7.5</v>
       </c>
       <c r="U16" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V16" t="n">
         <v>7.8</v>
@@ -2360,13 +2360,13 @@
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA16" t="n">
         <v>5.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>40</v>
@@ -2375,7 +2375,7 @@
         <v>250</v>
       </c>
       <c r="AE16" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF16" t="n">
         <v>11.5</v>
@@ -2390,7 +2390,7 @@
         <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -2434,10 +2434,10 @@
         <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2446,10 +2446,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2568,10 +2568,10 @@
         <v>2.75</v>
       </c>
       <c r="N18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2791,88 +2791,88 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="N20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.15</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.32</v>
-      </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S20" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="U20" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W20" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="X20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -2907,90 +2907,90 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="N21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2.15</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="T21" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="U21" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="V21" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="AA21" t="n">
         <v>5.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC21" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD21" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
         <v>40</v>
       </c>
       <c r="AI21" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ21" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
@@ -3522,22 +3522,22 @@
         <v>1.8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K26" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O26" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P26" t="n">
         <v>1.25</v>
@@ -3635,19 +3635,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
         <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="J27" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>1.02</v>
       </c>
       <c r="L27" t="n">
         <v>1.1</v>
@@ -3674,16 +3674,16 @@
         <v>1.91</v>
       </c>
       <c r="T27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U27" t="n">
         <v>51</v>
       </c>
       <c r="V27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="X27" t="n">
         <v>51</v>
@@ -3713,7 +3713,7 @@
         <v>8</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH27" t="n">
         <v>8.5</v>
@@ -3722,7 +3722,7 @@
         <v>11</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -4001,13 +4001,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -4034,16 +4034,16 @@
         <v>3.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T30" t="n">
         <v>9.5</v>
       </c>
       <c r="U30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V30" t="n">
         <v>8.5</v>
@@ -4052,7 +4052,7 @@
         <v>17</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
         <v>21</v>
@@ -4064,28 +4064,28 @@
         <v>7.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
@@ -4245,13 +4245,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4284,10 +4284,10 @@
         <v>2.05</v>
       </c>
       <c r="T32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
@@ -4308,28 +4308,28 @@
         <v>7.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
         <v>41</v>
       </c>
       <c r="AD32" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
         <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
         <v>34</v>
@@ -4367,13 +4367,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H33" t="n">
         <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
@@ -4400,10 +4400,10 @@
         <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -4418,7 +4418,7 @@
         <v>67</v>
       </c>
       <c r="X33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y33" t="n">
         <v>51</v>
@@ -4433,10 +4433,10 @@
         <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD33" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE33" t="n">
         <v>6.5</v>
@@ -4448,7 +4448,7 @@
         <v>8.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI33" t="n">
         <v>13</v>
@@ -4733,31 +4733,31 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="J36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P36" t="n">
         <v>1.44</v>
@@ -4781,7 +4781,7 @@
         <v>10</v>
       </c>
       <c r="W36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
@@ -4802,7 +4802,7 @@
         <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE36" t="n">
         <v>9</v>
@@ -4817,10 +4817,10 @@
         <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
